--- a/usgha_comparison.xlsx
+++ b/usgha_comparison.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Proposed Policy" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="CBO Summary" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Diff vs Baseline" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Normalized Per Capita" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Normalized" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -586,16 +586,16 @@
         <v>15971.64179104477</v>
       </c>
       <c r="F3" t="n">
-        <v>11129875000000</v>
+        <v>11408121875000</v>
       </c>
       <c r="G3" t="n">
-        <v>979875000000</v>
+        <v>1004371875000</v>
       </c>
       <c r="H3" t="n">
-        <v>2030000000000</v>
+        <v>2080750000000</v>
       </c>
       <c r="I3" t="n">
-        <v>8120000000000</v>
+        <v>8323000000000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -607,13 +607,13 @@
         <v>856079999999.9999</v>
       </c>
       <c r="M3" t="n">
-        <v>5859632500000.001</v>
+        <v>6137879375000.001</v>
       </c>
       <c r="N3" t="n">
-        <v>2636834625000</v>
+        <v>2762045718750</v>
       </c>
       <c r="O3" t="n">
-        <v>29703721625000</v>
+        <v>29578510531250</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>16370.93283582089</v>
       </c>
       <c r="F4" t="n">
-        <v>11129875000000</v>
+        <v>11693324921875</v>
       </c>
       <c r="G4" t="n">
-        <v>979875000000</v>
+        <v>1029481171875</v>
       </c>
       <c r="H4" t="n">
-        <v>2030000000000</v>
+        <v>2132768750000</v>
       </c>
       <c r="I4" t="n">
-        <v>8120000000000</v>
+        <v>8531074999999.998</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -657,13 +657,13 @@
         <v>877481999999.9998</v>
       </c>
       <c r="M4" t="n">
-        <v>5810140375000.002</v>
+        <v>6373590296875</v>
       </c>
       <c r="N4" t="n">
-        <v>2614563168750.001</v>
+        <v>2868115633593.75</v>
       </c>
       <c r="O4" t="n">
-        <v>27089158456250</v>
+        <v>26710394897656.25</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>16780.20615671641</v>
       </c>
       <c r="F5" t="n">
-        <v>11129875000000</v>
+        <v>11985658044921.87</v>
       </c>
       <c r="G5" t="n">
-        <v>979875000000</v>
+        <v>1055218201171.875</v>
       </c>
       <c r="H5" t="n">
-        <v>2030000000000</v>
+        <v>2186087968749.999</v>
       </c>
       <c r="I5" t="n">
-        <v>8120000000000</v>
+        <v>8744351874999.996</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>899419049999.9998</v>
       </c>
       <c r="M5" t="n">
-        <v>5677147009375.002</v>
+        <v>6532930054296.873</v>
       </c>
       <c r="N5" t="n">
-        <v>2554716154218.751</v>
+        <v>2939818524433.593</v>
       </c>
       <c r="O5" t="n">
-        <v>24534442302031.25</v>
+        <v>23770576373222.66</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -736,16 +736,16 @@
         <v>17199.71131063432</v>
       </c>
       <c r="F6" t="n">
-        <v>11129875000000</v>
+        <v>12285299496044.92</v>
       </c>
       <c r="G6" t="n">
-        <v>979875000000</v>
+        <v>1081598656201.171</v>
       </c>
       <c r="H6" t="n">
-        <v>2030000000000</v>
+        <v>2240740167968.749</v>
       </c>
       <c r="I6" t="n">
-        <v>8120000000000</v>
+        <v>8962960671874.996</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>921904526249.9995</v>
       </c>
       <c r="M6" t="n">
-        <v>5540828809609.378</v>
+        <v>6696253305654.294</v>
       </c>
       <c r="N6" t="n">
-        <v>2493372964324.22</v>
+        <v>3013313987544.432</v>
       </c>
       <c r="O6" t="n">
-        <v>22041069337707.03</v>
+        <v>20757262385678.22</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>17629.70409340017</v>
       </c>
       <c r="F7" t="n">
-        <v>11129875000000</v>
+        <v>12592431983446.04</v>
       </c>
       <c r="G7" t="n">
-        <v>979875000000</v>
+        <v>1108638622606.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2030000000000</v>
+        <v>2296758672167.968</v>
       </c>
       <c r="I7" t="n">
-        <v>8120000000000</v>
+        <v>9187034688671.871</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>944952139406.2494</v>
       </c>
       <c r="M7" t="n">
-        <v>5401102654849.613</v>
+        <v>6863659638295.652</v>
       </c>
       <c r="N7" t="n">
-        <v>2430496194682.326</v>
+        <v>3088646837233.043</v>
       </c>
       <c r="O7" t="n">
-        <v>19610573143024.7</v>
+        <v>17668615548445.18</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>18070.44669573518</v>
       </c>
       <c r="F8" t="n">
-        <v>11129875000000</v>
+        <v>12907242783032.19</v>
       </c>
       <c r="G8" t="n">
-        <v>979875000000</v>
+        <v>1136354588171.355</v>
       </c>
       <c r="H8" t="n">
-        <v>2030000000000</v>
+        <v>2354177638972.167</v>
       </c>
       <c r="I8" t="n">
-        <v>8120000000000</v>
+        <v>9416710555888.666</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>968575942891.4055</v>
       </c>
       <c r="M8" t="n">
-        <v>5257883346220.854</v>
+        <v>7035251129253.042</v>
       </c>
       <c r="N8" t="n">
-        <v>2366047505799.385</v>
+        <v>3165863008163.869</v>
       </c>
       <c r="O8" t="n">
-        <v>17244525637225.32</v>
+        <v>14502752540281.31</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -886,16 +886,16 @@
         <v>18522.20786312855</v>
       </c>
       <c r="F9" t="n">
-        <v>11129875000000</v>
+        <v>13229923852607.99</v>
       </c>
       <c r="G9" t="n">
-        <v>979875000000</v>
+        <v>1164763452875.639</v>
       </c>
       <c r="H9" t="n">
-        <v>2030000000000</v>
+        <v>2413032079946.471</v>
       </c>
       <c r="I9" t="n">
-        <v>8120000000000</v>
+        <v>9652128319785.883</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>992790341463.6907</v>
       </c>
       <c r="M9" t="n">
-        <v>5111083554876.376</v>
+        <v>7211132407484.368</v>
       </c>
       <c r="N9" t="n">
-        <v>2299987599694.369</v>
+        <v>3245009583367.966</v>
       </c>
       <c r="O9" t="n">
-        <v>14944538037530.95</v>
+        <v>11257742956913.34</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -936,16 +936,16 @@
         <v>18985.26305970677</v>
       </c>
       <c r="F10" t="n">
-        <v>11129875000000</v>
+        <v>13560671948923.19</v>
       </c>
       <c r="G10" t="n">
-        <v>979875000000</v>
+        <v>1193882539197.53</v>
       </c>
       <c r="H10" t="n">
-        <v>2030000000000</v>
+        <v>2473357881945.132</v>
       </c>
       <c r="I10" t="n">
-        <v>8120000000000</v>
+        <v>9893431527780.529</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -957,13 +957,13 @@
         <v>1017610100000.283</v>
       </c>
       <c r="M10" t="n">
-        <v>4960613768748.285</v>
+        <v>7391410717671.477</v>
       </c>
       <c r="N10" t="n">
-        <v>2232276195936.729</v>
+        <v>3326134822952.165</v>
       </c>
       <c r="O10" t="n">
-        <v>12712261841594.22</v>
+        <v>7931608133961.18</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>19459.89463619944</v>
       </c>
       <c r="F11" t="n">
-        <v>11129875000000</v>
+        <v>13899688747646.27</v>
       </c>
       <c r="G11" t="n">
-        <v>979875000000</v>
+        <v>1223729602677.469</v>
       </c>
       <c r="H11" t="n">
-        <v>2030000000000</v>
+        <v>2535191828993.76</v>
       </c>
       <c r="I11" t="n">
-        <v>8120000000000</v>
+        <v>10140767315975.04</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>1043050352500.29</v>
       </c>
       <c r="M11" t="n">
-        <v>4806382237966.993</v>
+        <v>7576195985613.263</v>
       </c>
       <c r="N11" t="n">
-        <v>2162872007085.147</v>
+        <v>3409288193525.968</v>
       </c>
       <c r="O11" t="n">
-        <v>10549389834509.07</v>
+        <v>4522319940435.211</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -1036,16 +1036,16 @@
         <v>19946.39200210442</v>
       </c>
       <c r="F12" t="n">
-        <v>11129875000000</v>
+        <v>14247180966337.43</v>
       </c>
       <c r="G12" t="n">
-        <v>979875000000</v>
+        <v>1254322842744.405</v>
       </c>
       <c r="H12" t="n">
-        <v>2030000000000</v>
+        <v>2598571624718.604</v>
       </c>
       <c r="I12" t="n">
-        <v>8120000000000</v>
+        <v>10394286498874.42</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>1069126611312.797</v>
       </c>
       <c r="M12" t="n">
-        <v>4648294918916.168</v>
+        <v>7765600885253.596</v>
       </c>
       <c r="N12" t="n">
-        <v>2091732713512.276</v>
+        <v>3494520398364.118</v>
       </c>
       <c r="O12" t="n">
-        <v>8457657120996.799</v>
+        <v>1027799542071.093</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
@@ -1086,16 +1086,16 @@
         <v>20445.05180215703</v>
       </c>
       <c r="F13" t="n">
-        <v>11129875000000</v>
+        <v>14603360490495.86</v>
       </c>
       <c r="G13" t="n">
-        <v>979875000000</v>
+        <v>1285680913813.015</v>
       </c>
       <c r="H13" t="n">
-        <v>2030000000000</v>
+        <v>2663535915336.569</v>
       </c>
       <c r="I13" t="n">
-        <v>8120000000000</v>
+        <v>10654143661346.28</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>1095854776595.617</v>
       </c>
       <c r="M13" t="n">
-        <v>4486255416889.073</v>
+        <v>7959740907384.933</v>
       </c>
       <c r="N13" t="n">
-        <v>2018814937600.083</v>
+        <v>3581883408323.22</v>
       </c>
       <c r="O13" t="n">
-        <v>6438842183396.716</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
         <v>0</v>
@@ -1136,16 +1136,16 @@
         <v>20956.17809721095</v>
       </c>
       <c r="F14" t="n">
-        <v>11129875000000</v>
+        <v>14968444502758.25</v>
       </c>
       <c r="G14" t="n">
-        <v>979875000000</v>
+        <v>1317822936658.34</v>
       </c>
       <c r="H14" t="n">
-        <v>2030000000000</v>
+        <v>2730124313219.983</v>
       </c>
       <c r="I14" t="n">
-        <v>8120000000000</v>
+        <v>10920497252879.93</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1157,13 +1157,13 @@
         <v>1123251146010.507</v>
       </c>
       <c r="M14" t="n">
-        <v>4320164927311.301</v>
+        <v>8158734430069.555</v>
       </c>
       <c r="N14" t="n">
-        <v>1944074217290.085</v>
+        <v>3671430493531.3</v>
       </c>
       <c r="O14" t="n">
-        <v>4494767966106.631</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>21480.08254964123</v>
       </c>
       <c r="F15" t="n">
-        <v>11129875000000</v>
+        <v>15342655615327.21</v>
       </c>
       <c r="G15" t="n">
-        <v>979875000000</v>
+        <v>1350768510074.799</v>
       </c>
       <c r="H15" t="n">
-        <v>2030000000000</v>
+        <v>2798377421050.482</v>
       </c>
       <c r="I15" t="n">
-        <v>8120000000000</v>
+        <v>11193509684201.93</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         <v>1151332424660.77</v>
       </c>
       <c r="M15" t="n">
-        <v>4149922175494.084</v>
+        <v>8362702790821.295</v>
       </c>
       <c r="N15" t="n">
-        <v>1867464978972.338</v>
+        <v>3763216255869.583</v>
       </c>
       <c r="O15" t="n">
-        <v>2627302987134.293</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>22017.08461338225</v>
       </c>
       <c r="F16" t="n">
-        <v>11129875000000</v>
+        <v>15726222005710.39</v>
       </c>
       <c r="G16" t="n">
-        <v>979875000000</v>
+        <v>1384537722826.669</v>
       </c>
       <c r="H16" t="n">
-        <v>2030000000000</v>
+        <v>2868336856576.744</v>
       </c>
       <c r="I16" t="n">
-        <v>8120000000000</v>
+        <v>11473347426306.98</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>1180115735277.289</v>
       </c>
       <c r="M16" t="n">
-        <v>3975423354881.437</v>
+        <v>8571770360591.827</v>
       </c>
       <c r="N16" t="n">
-        <v>1788940509696.646</v>
+        <v>3857296662266.322</v>
       </c>
       <c r="O16" t="n">
-        <v>838362477437.6465</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>22567.51172871681</v>
       </c>
       <c r="F17" t="n">
-        <v>11129875000000</v>
+        <v>16119377555853.14</v>
       </c>
       <c r="G17" t="n">
-        <v>979875000000</v>
+        <v>1419151165897.335</v>
       </c>
       <c r="H17" t="n">
-        <v>2030000000000</v>
+        <v>2940045277991.162</v>
       </c>
       <c r="I17" t="n">
-        <v>8120000000000</v>
+        <v>11760181111964.65</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>1209618628659.221</v>
       </c>
       <c r="M17" t="n">
-        <v>3796562063753.473</v>
+        <v>8786064619606.617</v>
       </c>
       <c r="N17" t="n">
-        <v>1708452928689.063</v>
+        <v>3953729078822.978</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>23131.69952193473</v>
       </c>
       <c r="F18" t="n">
-        <v>11129875000000</v>
+        <v>16522361994749.47</v>
       </c>
       <c r="G18" t="n">
-        <v>979875000000</v>
+        <v>1454629945044.768</v>
       </c>
       <c r="H18" t="n">
-        <v>2030000000000</v>
+        <v>3013546409940.941</v>
       </c>
       <c r="I18" t="n">
-        <v>8120000000000</v>
+        <v>12054185639763.76</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>1239859094375.701</v>
       </c>
       <c r="M18" t="n">
-        <v>3613229240347.312</v>
+        <v>9005716235096.785</v>
       </c>
       <c r="N18" t="n">
-        <v>1625953158156.29</v>
+        <v>4052572305793.553</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1386,16 +1386,16 @@
         <v>23709.99200998309</v>
       </c>
       <c r="F19" t="n">
-        <v>11129875000000</v>
+        <v>16935421044618.21</v>
       </c>
       <c r="G19" t="n">
-        <v>979875000000</v>
+        <v>1490995693670.887</v>
       </c>
       <c r="H19" t="n">
-        <v>2030000000000</v>
+        <v>3088885070189.464</v>
       </c>
       <c r="I19" t="n">
-        <v>8120000000000</v>
+        <v>12355540280757.86</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1407,10 +1407,10 @@
         <v>1270855571735.094</v>
       </c>
       <c r="M19" t="n">
-        <v>3425313096355.994</v>
+        <v>9230859140974.203</v>
       </c>
       <c r="N19" t="n">
-        <v>1541390893360.197</v>
+        <v>4153886613438.392</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1436,16 +1436,16 @@
         <v>24302.74181023267</v>
       </c>
       <c r="F20" t="n">
-        <v>11129875000000</v>
+        <v>17358806570733.66</v>
       </c>
       <c r="G20" t="n">
-        <v>979875000000</v>
+        <v>1528270586012.659</v>
       </c>
       <c r="H20" t="n">
-        <v>2030000000000</v>
+        <v>3166107196944.201</v>
       </c>
       <c r="I20" t="n">
-        <v>8120000000000</v>
+        <v>12664428787776.8</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>1302626961028.471</v>
       </c>
       <c r="M20" t="n">
-        <v>3232699048764.895</v>
+        <v>9461630619498.555</v>
       </c>
       <c r="N20" t="n">
-        <v>1454714571944.203</v>
+        <v>4257733778774.35</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1486,16 +1486,16 @@
         <v>24910.31035548848</v>
       </c>
       <c r="F21" t="n">
-        <v>11129875000000</v>
+        <v>17792776735002</v>
       </c>
       <c r="G21" t="n">
-        <v>979875000000</v>
+        <v>1566477350662.976</v>
       </c>
       <c r="H21" t="n">
-        <v>2030000000000</v>
+        <v>3245259876867.806</v>
       </c>
       <c r="I21" t="n">
-        <v>8120000000000</v>
+        <v>12981039507471.22</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>1335192635054.183</v>
       </c>
       <c r="M21" t="n">
-        <v>3035269649984.018</v>
+        <v>9698171384986.021</v>
       </c>
       <c r="N21" t="n">
-        <v>1365871342492.808</v>
+        <v>4364177123243.709</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -1536,16 +1536,16 @@
         <v>25533.0681143757</v>
       </c>
       <c r="F22" t="n">
-        <v>11129875000000</v>
+        <v>18237596153377.05</v>
       </c>
       <c r="G22" t="n">
-        <v>979875000000</v>
+        <v>1605639284429.55</v>
       </c>
       <c r="H22" t="n">
-        <v>2030000000000</v>
+        <v>3326391373789.5</v>
       </c>
       <c r="I22" t="n">
-        <v>8120000000000</v>
+        <v>13305565495158</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         <v>1368572450930.537</v>
       </c>
       <c r="M22" t="n">
-        <v>2832904516233.618</v>
+        <v>9940625669610.668</v>
       </c>
       <c r="N22" t="n">
-        <v>1274807032305.128</v>
+        <v>4473281551324.801</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1586,16 +1586,16 @@
         <v>26171.39481723508</v>
       </c>
       <c r="F23" t="n">
-        <v>11129875000000</v>
+        <v>18693536057211.48</v>
       </c>
       <c r="G23" t="n">
-        <v>979875000000</v>
+        <v>1645780266540.289</v>
       </c>
       <c r="H23" t="n">
-        <v>2030000000000</v>
+        <v>3409551158134.238</v>
       </c>
       <c r="I23" t="n">
-        <v>8120000000000</v>
+        <v>13638204632536.95</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>1402786762203.801</v>
       </c>
       <c r="M23" t="n">
-        <v>2625480254139.46</v>
+        <v>10189141311350.94</v>
       </c>
       <c r="N23" t="n">
-        <v>1181466114362.757</v>
+        <v>4585113590107.922</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1808,13 +1808,13 @@
         <v>2046566250000</v>
       </c>
       <c r="M3" t="n">
-        <v>6858763500000</v>
+        <v>7147007249999.996</v>
       </c>
       <c r="N3" t="n">
-        <v>3086443575000</v>
+        <v>3216153262499.998</v>
       </c>
       <c r="O3" t="n">
-        <v>29543968925000</v>
+        <v>29414259237500</v>
       </c>
       <c r="P3" t="b">
         <v>1</v>
@@ -1837,16 +1837,16 @@
         <v>8185.466417910445</v>
       </c>
       <c r="F4" t="n">
-        <v>11529750000000</v>
+        <v>12113443593750</v>
       </c>
       <c r="G4" t="n">
-        <v>1959750000000</v>
+        <v>2058962343750</v>
       </c>
       <c r="H4" t="n">
-        <v>4350000000000</v>
+        <v>4570218749999.999</v>
       </c>
       <c r="I4" t="n">
-        <v>5220000000000</v>
+        <v>5484262499999.999</v>
       </c>
       <c r="J4" t="n">
         <v>548426249999.9998</v>
@@ -1858,13 +1858,13 @@
         <v>2358232874999.999</v>
       </c>
       <c r="M4" t="n">
-        <v>8469531525000.001</v>
+        <v>9053225118749.996</v>
       </c>
       <c r="N4" t="n">
-        <v>3811289186250</v>
+        <v>4073951303437.498</v>
       </c>
       <c r="O4" t="n">
-        <v>25732679738750</v>
+        <v>25340307934062.5</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -1887,16 +1887,16 @@
         <v>8390.103078358206</v>
       </c>
       <c r="F5" t="n">
-        <v>11529750000000</v>
+        <v>12416279683593.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1959750000000</v>
+        <v>2110436402343.749</v>
       </c>
       <c r="H5" t="n">
-        <v>4350000000000</v>
+        <v>4684474218749.998</v>
       </c>
       <c r="I5" t="n">
-        <v>5220000000000</v>
+        <v>5621369062499.998</v>
       </c>
       <c r="J5" t="n">
         <v>562136906249.9999</v>
@@ -1908,13 +1908,13 @@
         <v>2417188696874.999</v>
       </c>
       <c r="M5" t="n">
-        <v>8393026063125.001</v>
+        <v>9279555746718.746</v>
       </c>
       <c r="N5" t="n">
-        <v>3776861728406.25</v>
+        <v>4175800086023.436</v>
       </c>
       <c r="O5" t="n">
-        <v>21955818010343.75</v>
+        <v>21164507848039.06</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -1937,16 +1937,16 @@
         <v>8599.85565531716</v>
       </c>
       <c r="F6" t="n">
-        <v>11529750000000</v>
+        <v>12726686675683.59</v>
       </c>
       <c r="G6" t="n">
-        <v>1959750000000</v>
+        <v>2163197312402.343</v>
       </c>
       <c r="H6" t="n">
-        <v>4350000000000</v>
+        <v>4801586074218.747</v>
       </c>
       <c r="I6" t="n">
-        <v>5220000000000</v>
+        <v>5761903289062.498</v>
       </c>
       <c r="J6" t="n">
         <v>576190328906.2498</v>
@@ -1958,13 +1958,13 @@
         <v>2477618414296.874</v>
       </c>
       <c r="M6" t="n">
-        <v>8314607964703.127</v>
+        <v>9511544640386.715</v>
       </c>
       <c r="N6" t="n">
-        <v>3741573584116.407</v>
+        <v>4280195088174.021</v>
       </c>
       <c r="O6" t="n">
-        <v>18214244426227.34</v>
+        <v>16884312759865.04</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -1987,16 +1987,16 @@
         <v>8814.852046700087</v>
       </c>
       <c r="F7" t="n">
-        <v>11529750000000</v>
+        <v>13044853842575.68</v>
       </c>
       <c r="G7" t="n">
-        <v>1959750000000</v>
+        <v>2217277245212.401</v>
       </c>
       <c r="H7" t="n">
-        <v>4350000000000</v>
+        <v>4921625726074.216</v>
       </c>
       <c r="I7" t="n">
-        <v>5220000000000</v>
+        <v>5905950871289.059</v>
       </c>
       <c r="J7" t="n">
         <v>590595087128.9059</v>
@@ -2008,13 +2008,13 @@
         <v>2539558874654.295</v>
       </c>
       <c r="M7" t="n">
-        <v>8234229413820.705</v>
+        <v>9749333256396.381</v>
       </c>
       <c r="N7" t="n">
-        <v>3705403236219.317</v>
+        <v>4387199965378.371</v>
       </c>
       <c r="O7" t="n">
-        <v>14508841190008.03</v>
+        <v>12497112794486.67</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -2037,16 +2037,16 @@
         <v>9035.223347867588</v>
       </c>
       <c r="F8" t="n">
-        <v>11529750000000</v>
+        <v>13370975188640.07</v>
       </c>
       <c r="G8" t="n">
-        <v>1959750000000</v>
+        <v>2272709176342.711</v>
       </c>
       <c r="H8" t="n">
-        <v>4350000000000</v>
+        <v>5044666369226.07</v>
       </c>
       <c r="I8" t="n">
-        <v>5220000000000</v>
+        <v>6053599643071.284</v>
       </c>
       <c r="J8" t="n">
         <v>605359964307.1284</v>
@@ -2058,13 +2058,13 @@
         <v>2603047846520.652</v>
       </c>
       <c r="M8" t="n">
-        <v>8151841399166.224</v>
+        <v>9993066587806.289</v>
       </c>
       <c r="N8" t="n">
-        <v>3668328629624.801</v>
+        <v>4496879964512.83</v>
       </c>
       <c r="O8" t="n">
-        <v>10840512560383.23</v>
+        <v>8000232829973.84</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
@@ -2087,16 +2087,16 @@
         <v>9261.103931564277</v>
       </c>
       <c r="F9" t="n">
-        <v>11529750000000</v>
+        <v>13705249568356.07</v>
       </c>
       <c r="G9" t="n">
-        <v>1959750000000</v>
+        <v>2329526905751.279</v>
       </c>
       <c r="H9" t="n">
-        <v>4350000000000</v>
+        <v>5170783028456.722</v>
       </c>
       <c r="I9" t="n">
-        <v>5220000000000</v>
+        <v>6204939634148.067</v>
       </c>
       <c r="J9" t="n">
         <v>620493963414.8066</v>
@@ -2108,13 +2108,13 @@
         <v>2668124042683.668</v>
       </c>
       <c r="M9" t="n">
-        <v>8067393684145.379</v>
+        <v>10242893252501.45</v>
       </c>
       <c r="N9" t="n">
-        <v>3630327157865.42</v>
+        <v>4609301963625.65</v>
       </c>
       <c r="O9" t="n">
-        <v>7210185402517.807</v>
+        <v>3390930866348.189</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>9492.631529853385</v>
       </c>
       <c r="F10" t="n">
-        <v>11529750000000</v>
+        <v>14047880807564.97</v>
       </c>
       <c r="G10" t="n">
-        <v>1959750000000</v>
+        <v>2387765078395.06</v>
       </c>
       <c r="H10" t="n">
-        <v>4350000000000</v>
+        <v>5300052604168.14</v>
       </c>
       <c r="I10" t="n">
-        <v>5220000000000</v>
+        <v>6360063125001.769</v>
       </c>
       <c r="J10" t="n">
         <v>636006312500.1768</v>
@@ -2158,13 +2158,13 @@
         <v>2734827143750.76</v>
       </c>
       <c r="M10" t="n">
-        <v>7980834776249.014</v>
+        <v>10498965583813.98</v>
       </c>
       <c r="N10" t="n">
-        <v>3591375649312.056</v>
+        <v>4724534512716.292</v>
       </c>
       <c r="O10" t="n">
-        <v>3618809753205.75</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
         <v>0</v>
@@ -2187,16 +2187,16 @@
         <v>9729.947318099719</v>
       </c>
       <c r="F11" t="n">
-        <v>11529750000000</v>
+        <v>14399077827754.09</v>
       </c>
       <c r="G11" t="n">
-        <v>1959750000000</v>
+        <v>2447459205354.937</v>
       </c>
       <c r="H11" t="n">
-        <v>4350000000000</v>
+        <v>5432553919272.343</v>
       </c>
       <c r="I11" t="n">
-        <v>5220000000000</v>
+        <v>6519064703126.812</v>
       </c>
       <c r="J11" t="n">
         <v>651906470312.6812</v>
@@ -2208,13 +2208,13 @@
         <v>2803197822344.529</v>
       </c>
       <c r="M11" t="n">
-        <v>7892111895655.239</v>
+        <v>10761439723409.33</v>
       </c>
       <c r="N11" t="n">
-        <v>3551450353044.857</v>
+        <v>4842647875534.197</v>
       </c>
       <c r="O11" t="n">
-        <v>67359400160.89307</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
         <v>0</v>
@@ -2237,16 +2237,16 @@
         <v>9973.196001052211</v>
       </c>
       <c r="F12" t="n">
-        <v>11529750000000</v>
+        <v>14759054773447.94</v>
       </c>
       <c r="G12" t="n">
-        <v>1959750000000</v>
+        <v>2508645685488.81</v>
       </c>
       <c r="H12" t="n">
-        <v>4350000000000</v>
+        <v>5568367767254.151</v>
       </c>
       <c r="I12" t="n">
-        <v>5220000000000</v>
+        <v>6682041320704.981</v>
       </c>
       <c r="J12" t="n">
         <v>668204132070.4982</v>
@@ -2258,10 +2258,10 @@
         <v>2873277767903.142</v>
       </c>
       <c r="M12" t="n">
-        <v>7801170943046.621</v>
+        <v>11030475716494.56</v>
       </c>
       <c r="N12" t="n">
-        <v>3510526924370.979</v>
+        <v>4963714072422.553</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>10222.52590107851</v>
       </c>
       <c r="F13" t="n">
-        <v>11529750000000</v>
+        <v>15128031142784.14</v>
       </c>
       <c r="G13" t="n">
-        <v>1959750000000</v>
+        <v>2571361827626.03</v>
       </c>
       <c r="H13" t="n">
-        <v>4350000000000</v>
+        <v>5707576961435.504</v>
       </c>
       <c r="I13" t="n">
-        <v>5220000000000</v>
+        <v>6849092353722.604</v>
       </c>
       <c r="J13" t="n">
         <v>684909235372.2605</v>
@@ -2308,10 +2308,10 @@
         <v>2945109712100.72</v>
       </c>
       <c r="M13" t="n">
-        <v>7707956466622.787</v>
+        <v>11306237609406.93</v>
       </c>
       <c r="N13" t="n">
-        <v>3468580409980.254</v>
+        <v>5087806924233.116</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>10478.08904860548</v>
       </c>
       <c r="F14" t="n">
-        <v>11529750000000</v>
+        <v>15506231921353.74</v>
       </c>
       <c r="G14" t="n">
-        <v>1959750000000</v>
+        <v>2635645873316.681</v>
       </c>
       <c r="H14" t="n">
-        <v>4350000000000</v>
+        <v>5850266385471.392</v>
       </c>
       <c r="I14" t="n">
-        <v>5220000000000</v>
+        <v>7020319662565.67</v>
       </c>
       <c r="J14" t="n">
         <v>702031966256.5669</v>
@@ -2358,10 +2358,10 @@
         <v>3018737454903.238</v>
       </c>
       <c r="M14" t="n">
-        <v>7612411628288.356</v>
+        <v>11588893549642.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3425585232729.76</v>
+        <v>5215002097338.944</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2387,16 +2387,16 @@
         <v>10740.04127482061</v>
       </c>
       <c r="F15" t="n">
-        <v>11529750000000</v>
+        <v>15893887719387.58</v>
       </c>
       <c r="G15" t="n">
-        <v>1959750000000</v>
+        <v>2701537020149.597</v>
       </c>
       <c r="H15" t="n">
-        <v>4350000000000</v>
+        <v>5996523045108.176</v>
       </c>
       <c r="I15" t="n">
-        <v>5220000000000</v>
+        <v>7195827654129.811</v>
       </c>
       <c r="J15" t="n">
         <v>719582765412.9811</v>
@@ -2408,10 +2408,10 @@
         <v>3094205891275.818</v>
       </c>
       <c r="M15" t="n">
-        <v>7514478168995.566</v>
+        <v>11878615888383.15</v>
       </c>
       <c r="N15" t="n">
-        <v>3381515176048.005</v>
+        <v>5345377149772.418</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2437,16 +2437,16 @@
         <v>11008.54230669113</v>
       </c>
       <c r="F16" t="n">
-        <v>11529750000000</v>
+        <v>16291234912372.27</v>
       </c>
       <c r="G16" t="n">
-        <v>1959750000000</v>
+        <v>2769075445653.337</v>
       </c>
       <c r="H16" t="n">
-        <v>4350000000000</v>
+        <v>6146436121235.879</v>
       </c>
       <c r="I16" t="n">
-        <v>5220000000000</v>
+        <v>7375723345483.055</v>
       </c>
       <c r="J16" t="n">
         <v>737572334548.3055</v>
@@ -2458,10 +2458,10 @@
         <v>3171561038557.713</v>
       </c>
       <c r="M16" t="n">
-        <v>7414096373220.455</v>
+        <v>12175581285592.73</v>
       </c>
       <c r="N16" t="n">
-        <v>3336343367949.205</v>
+        <v>5479011578516.727</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>11283.7558643584</v>
       </c>
       <c r="F17" t="n">
-        <v>11529750000000</v>
+        <v>16698515785181.58</v>
       </c>
       <c r="G17" t="n">
-        <v>1959750000000</v>
+        <v>2838302331794.67</v>
       </c>
       <c r="H17" t="n">
-        <v>4350000000000</v>
+        <v>6300097024266.775</v>
       </c>
       <c r="I17" t="n">
-        <v>5220000000000</v>
+        <v>7560116429120.132</v>
       </c>
       <c r="J17" t="n">
         <v>756011642912.0132</v>
@@ -2508,10 +2508,10 @@
         <v>3250850064521.656</v>
       </c>
       <c r="M17" t="n">
-        <v>7311205032550.967</v>
+        <v>12479970817732.54</v>
       </c>
       <c r="N17" t="n">
-        <v>3290042264647.935</v>
+        <v>5615986867979.646</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2537,16 +2537,16 @@
         <v>11565.84976096736</v>
       </c>
       <c r="F18" t="n">
-        <v>11529750000000</v>
+        <v>17115978679811.12</v>
       </c>
       <c r="G18" t="n">
-        <v>1959750000000</v>
+        <v>2909259890089.537</v>
       </c>
       <c r="H18" t="n">
-        <v>4350000000000</v>
+        <v>6457599449873.444</v>
       </c>
       <c r="I18" t="n">
-        <v>5220000000000</v>
+        <v>7749119339848.135</v>
       </c>
       <c r="J18" t="n">
         <v>774911933984.8134</v>
@@ -2558,10 +2558,10 @@
         <v>3332121316134.697</v>
       </c>
       <c r="M18" t="n">
-        <v>7205741408364.742</v>
+        <v>12791970088175.86</v>
       </c>
       <c r="N18" t="n">
-        <v>3242583633764.134</v>
+        <v>5756386539679.136</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2587,16 +2587,16 @@
         <v>11854.99600499155</v>
       </c>
       <c r="F19" t="n">
-        <v>11529750000000</v>
+        <v>17543878146806.39</v>
       </c>
       <c r="G19" t="n">
-        <v>1959750000000</v>
+        <v>2981991387341.775</v>
       </c>
       <c r="H19" t="n">
-        <v>4350000000000</v>
+        <v>6619039436120.28</v>
       </c>
       <c r="I19" t="n">
-        <v>5220000000000</v>
+        <v>7942847323344.338</v>
       </c>
       <c r="J19" t="n">
         <v>794284732334.4336</v>
@@ -2608,10 +2608,10 @@
         <v>3415424349038.064</v>
       </c>
       <c r="M19" t="n">
-        <v>7097641193573.86</v>
+        <v>13111769340380.25</v>
       </c>
       <c r="N19" t="n">
-        <v>3193938537108.237</v>
+        <v>5900296203171.114</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2637,16 +2637,16 @@
         <v>12151.37090511633</v>
       </c>
       <c r="F20" t="n">
-        <v>11529750000000</v>
+        <v>17982475100476.55</v>
       </c>
       <c r="G20" t="n">
-        <v>1959750000000</v>
+        <v>3056541172025.319</v>
       </c>
       <c r="H20" t="n">
-        <v>4350000000000</v>
+        <v>6784515422023.286</v>
       </c>
       <c r="I20" t="n">
-        <v>5220000000000</v>
+        <v>8141418506427.944</v>
       </c>
       <c r="J20" t="n">
         <v>814141850642.7944</v>
@@ -2658,10 +2658,10 @@
         <v>3500809957764.016</v>
       </c>
       <c r="M20" t="n">
-        <v>6986838473413.208</v>
+        <v>13439563573889.76</v>
       </c>
       <c r="N20" t="n">
-        <v>3144077313035.943</v>
+        <v>6047803608250.391</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>12455.15517774424</v>
       </c>
       <c r="F21" t="n">
-        <v>11529750000000</v>
+        <v>18432036977988.46</v>
       </c>
       <c r="G21" t="n">
-        <v>1959750000000</v>
+        <v>3132954701325.952</v>
       </c>
       <c r="H21" t="n">
-        <v>4350000000000</v>
+        <v>6954128307573.868</v>
       </c>
       <c r="I21" t="n">
-        <v>5220000000000</v>
+        <v>8344953969088.642</v>
       </c>
       <c r="J21" t="n">
         <v>834495396908.8643</v>
@@ -2708,10 +2708,10 @@
         <v>3588330206708.116</v>
       </c>
       <c r="M21" t="n">
-        <v>6873265685248.537</v>
+        <v>13775552663237</v>
       </c>
       <c r="N21" t="n">
-        <v>3092969558361.842</v>
+        <v>6198998698456.649</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2737,16 +2737,16 @@
         <v>12766.53405718785</v>
       </c>
       <c r="F22" t="n">
-        <v>11529750000000</v>
+        <v>18892837902438.17</v>
       </c>
       <c r="G22" t="n">
-        <v>1959750000000</v>
+        <v>3211278568859.1</v>
       </c>
       <c r="H22" t="n">
-        <v>4350000000000</v>
+        <v>7127981515263.214</v>
       </c>
       <c r="I22" t="n">
-        <v>5220000000000</v>
+        <v>8553577818315.856</v>
       </c>
       <c r="J22" t="n">
         <v>855357781831.5858</v>
@@ -2758,10 +2758,10 @@
         <v>3678038461875.819</v>
       </c>
       <c r="M22" t="n">
-        <v>6756853577379.751</v>
+        <v>14119941479817.92</v>
       </c>
       <c r="N22" t="n">
-        <v>3040584109820.888</v>
+        <v>6353973665918.064</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2787,16 +2787,16 @@
         <v>13085.69740861754</v>
       </c>
       <c r="F23" t="n">
-        <v>11529750000000</v>
+        <v>19365158849999.12</v>
       </c>
       <c r="G23" t="n">
-        <v>1959750000000</v>
+        <v>3291560533080.578</v>
       </c>
       <c r="H23" t="n">
-        <v>4350000000000</v>
+        <v>7306181053144.794</v>
       </c>
       <c r="I23" t="n">
-        <v>5220000000000</v>
+        <v>8767417263773.754</v>
       </c>
       <c r="J23" t="n">
         <v>876741726377.3754</v>
@@ -2808,10 +2808,10 @@
         <v>3769989423422.714</v>
       </c>
       <c r="M23" t="n">
-        <v>6637531166814.246</v>
+        <v>14472940016813.37</v>
       </c>
       <c r="N23" t="n">
-        <v>2986889025066.411</v>
+        <v>6512823007566.017</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2923,10 +2923,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98476207919717.33</v>
+        <v>174858936265388.9</v>
       </c>
       <c r="C2" t="n">
-        <v>44314293563872.8</v>
+        <v>78686521319425.03</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2938,13 +2938,13 @@
         <v>20442.89115532217</v>
       </c>
       <c r="G2" t="n">
-        <v>21557250000000</v>
+        <v>28281990928151.94</v>
       </c>
       <c r="H2" t="n">
-        <v>44660000000000.01</v>
+        <v>58591597483503.93</v>
       </c>
       <c r="I2" t="n">
-        <v>178640000000000</v>
+        <v>234366389934015.7</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>22</v>
       </c>
       <c r="N2" t="n">
-        <v>293958.8296110965</v>
+        <v>521966.9739265341</v>
       </c>
       <c r="O2" t="n">
-        <v>132281.4733249934</v>
+        <v>234885.1382669404</v>
       </c>
     </row>
     <row r="3">
@@ -2972,10 +2972,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164547280339383.8</v>
+        <v>243674293189349</v>
       </c>
       <c r="C3" t="n">
-        <v>74046276152722.7</v>
+        <v>109653431935207.1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2987,13 +2987,13 @@
         <v>10694.44167671129</v>
       </c>
       <c r="G3" t="n">
-        <v>43114500000000</v>
+        <v>56514988106303.88</v>
       </c>
       <c r="H3" t="n">
-        <v>95700000000000</v>
+        <v>125444673178937</v>
       </c>
       <c r="I3" t="n">
-        <v>114840000000000</v>
+        <v>150533607814724.4</v>
       </c>
       <c r="J3" t="n">
         <v>15855935781472.44</v>
@@ -3008,10 +3008,10 @@
         <v>22</v>
       </c>
       <c r="N3" t="n">
-        <v>491185.9114608471</v>
+        <v>727385.9498189522</v>
       </c>
       <c r="O3" t="n">
-        <v>221033.6601573812</v>
+        <v>327323.6774185286</v>
       </c>
     </row>
   </sheetData>
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>66071072419666.45</v>
+        <v>68815356923960.06</v>
       </c>
       <c r="C2" t="n">
-        <v>29731982588849.91</v>
+        <v>30966910615782.05</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>-9748.449478610883</v>
       </c>
       <c r="G2" t="n">
-        <v>21557250000000</v>
+        <v>28232997178151.94</v>
       </c>
       <c r="H2" t="n">
-        <v>51039999999999.99</v>
+        <v>66853075695433.09</v>
       </c>
       <c r="I2" t="n">
-        <v>-63800000000000</v>
+        <v>-83832782119291.31</v>
       </c>
       <c r="J2" t="n">
         <v>15855935781472.44</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>197227.0818497507</v>
+        <v>205418.9758924181</v>
       </c>
       <c r="O2" t="n">
-        <v>88752.18683238779</v>
+        <v>92438.53915158819</v>
       </c>
     </row>
   </sheetData>
@@ -3267,13 +3267,13 @@
         <v>15971.64179104477</v>
       </c>
       <c r="F3" t="n">
-        <v>33223.50746268657</v>
+        <v>34054.09514925373</v>
       </c>
       <c r="G3" t="n">
-        <v>17491.44029850747</v>
+        <v>18322.02798507463</v>
       </c>
       <c r="H3" t="n">
-        <v>29703721625000</v>
+        <v>29578510531250</v>
       </c>
     </row>
     <row r="4">
@@ -3295,13 +3295,13 @@
         <v>16370.93283582089</v>
       </c>
       <c r="F4" t="n">
-        <v>33223.50746268657</v>
+        <v>34905.44752798507</v>
       </c>
       <c r="G4" t="n">
-        <v>17343.70261194031</v>
+        <v>19025.64267723881</v>
       </c>
       <c r="H4" t="n">
-        <v>27089158456250</v>
+        <v>26710394897656.25</v>
       </c>
     </row>
     <row r="5">
@@ -3323,13 +3323,13 @@
         <v>16780.20615671641</v>
       </c>
       <c r="F5" t="n">
-        <v>33223.50746268657</v>
+        <v>35778.08371618469</v>
       </c>
       <c r="G5" t="n">
-        <v>16946.70749067165</v>
+        <v>19501.28374416977</v>
       </c>
       <c r="H5" t="n">
-        <v>24534442302031.25</v>
+        <v>23770576373222.66</v>
       </c>
     </row>
     <row r="6">
@@ -3351,13 +3351,13 @@
         <v>17199.71131063432</v>
       </c>
       <c r="F6" t="n">
-        <v>33223.50746268657</v>
+        <v>36672.5358090893</v>
       </c>
       <c r="G6" t="n">
-        <v>16539.78749137128</v>
+        <v>19988.81583777401</v>
       </c>
       <c r="H6" t="n">
-        <v>22041069337707.03</v>
+        <v>20757262385678.22</v>
       </c>
     </row>
     <row r="7">
@@ -3379,13 +3379,13 @@
         <v>17629.70409340017</v>
       </c>
       <c r="F7" t="n">
-        <v>33223.50746268657</v>
+        <v>37589.34920431653</v>
       </c>
       <c r="G7" t="n">
-        <v>16122.6944920884</v>
+        <v>20488.53623371837</v>
       </c>
       <c r="H7" t="n">
-        <v>19610573143024.7</v>
+        <v>17668615548445.18</v>
       </c>
     </row>
     <row r="8">
@@ -3407,13 +3407,13 @@
         <v>18070.44669573518</v>
       </c>
       <c r="F8" t="n">
-        <v>33223.50746268657</v>
+        <v>38529.08293442444</v>
       </c>
       <c r="G8" t="n">
-        <v>15695.17416782345</v>
+        <v>21000.74963956132</v>
       </c>
       <c r="H8" t="n">
-        <v>17244525637225.32</v>
+        <v>14502752540281.31</v>
       </c>
     </row>
     <row r="9">
@@ -3435,13 +3435,13 @@
         <v>18522.20786312855</v>
       </c>
       <c r="F9" t="n">
-        <v>33223.50746268657</v>
+        <v>39492.31000778505</v>
       </c>
       <c r="G9" t="n">
-        <v>15256.96583545187</v>
+        <v>21525.76838055035</v>
       </c>
       <c r="H9" t="n">
-        <v>14944538037530.95</v>
+        <v>11257742956913.34</v>
       </c>
     </row>
     <row r="10">
@@ -3463,13 +3463,13 @@
         <v>18985.26305970677</v>
       </c>
       <c r="F10" t="n">
-        <v>33223.50746268657</v>
+        <v>40479.61775797968</v>
       </c>
       <c r="G10" t="n">
-        <v>14807.802294771</v>
+        <v>22063.91259006411</v>
       </c>
       <c r="H10" t="n">
-        <v>12712261841594.22</v>
+        <v>7931608133961.18</v>
       </c>
     </row>
     <row r="11">
@@ -3491,13 +3491,13 @@
         <v>19459.89463619944</v>
       </c>
       <c r="F11" t="n">
-        <v>33223.50746268657</v>
+        <v>41491.60820192916</v>
       </c>
       <c r="G11" t="n">
-        <v>14347.40966557311</v>
+        <v>22615.51040481571</v>
       </c>
       <c r="H11" t="n">
-        <v>10549389834509.07</v>
+        <v>4522319940435.211</v>
       </c>
     </row>
     <row r="12">
@@ -3519,13 +3519,13 @@
         <v>19946.39200210442</v>
       </c>
       <c r="F12" t="n">
-        <v>33223.50746268657</v>
+        <v>42528.89840697739</v>
       </c>
       <c r="G12" t="n">
-        <v>13875.50722064528</v>
+        <v>23180.8981649361</v>
       </c>
       <c r="H12" t="n">
-        <v>8457657120996.799</v>
+        <v>1027799542071.093</v>
       </c>
     </row>
     <row r="13">
@@ -3547,13 +3547,13 @@
         <v>20445.05180215703</v>
       </c>
       <c r="F13" t="n">
-        <v>33223.50746268657</v>
+        <v>43592.12086715182</v>
       </c>
       <c r="G13" t="n">
-        <v>13391.80721459425</v>
+        <v>23760.4206190595</v>
       </c>
       <c r="H13" t="n">
-        <v>6438842183396.716</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3575,13 +3575,13 @@
         <v>20956.17809721095</v>
       </c>
       <c r="F14" t="n">
-        <v>33223.50746268657</v>
+        <v>44681.92388883061</v>
       </c>
       <c r="G14" t="n">
-        <v>12896.01470839194</v>
+        <v>24354.43113453599</v>
       </c>
       <c r="H14" t="n">
-        <v>4494767966106.631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3603,13 +3603,13 @@
         <v>21480.08254964123</v>
       </c>
       <c r="F15" t="n">
-        <v>33223.50746268657</v>
+        <v>45798.97198605137</v>
       </c>
       <c r="G15" t="n">
-        <v>12387.82738953458</v>
+        <v>24963.29191289939</v>
       </c>
       <c r="H15" t="n">
-        <v>2627302987134.293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3631,13 +3631,13 @@
         <v>22017.08461338225</v>
       </c>
       <c r="F16" t="n">
-        <v>33223.50746268657</v>
+        <v>46943.94628570266</v>
       </c>
       <c r="G16" t="n">
-        <v>11866.93538770578</v>
+        <v>25587.37421072187</v>
       </c>
       <c r="H16" t="n">
-        <v>838362477437.6465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3659,10 +3659,10 @@
         <v>22567.51172871681</v>
       </c>
       <c r="F17" t="n">
-        <v>33223.50746268657</v>
+        <v>48117.5449428452</v>
       </c>
       <c r="G17" t="n">
-        <v>11333.02108583126</v>
+        <v>26227.0585659899</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>23131.69952193473</v>
       </c>
       <c r="F18" t="n">
-        <v>33223.50746268657</v>
+        <v>49320.48356641633</v>
       </c>
       <c r="G18" t="n">
-        <v>10785.75892640989</v>
+        <v>26882.73503013966</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -3715,10 +3715,10 @@
         <v>23709.99200998309</v>
       </c>
       <c r="F19" t="n">
-        <v>33223.50746268657</v>
+        <v>50553.49565557674</v>
       </c>
       <c r="G19" t="n">
-        <v>10224.81521300297</v>
+        <v>27554.80340589314</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -3743,10 +3743,10 @@
         <v>24302.74181023267</v>
       </c>
       <c r="F20" t="n">
-        <v>33223.50746268657</v>
+        <v>51817.33304696615</v>
       </c>
       <c r="G20" t="n">
-        <v>9649.847906760879</v>
+        <v>28243.67349104046</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -3771,10 +3771,10 @@
         <v>24910.31035548848</v>
       </c>
       <c r="F21" t="n">
-        <v>33223.50746268657</v>
+        <v>53112.76637314031</v>
       </c>
       <c r="G21" t="n">
-        <v>9060.50641786274</v>
+        <v>28949.76532831648</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>25533.0681143757</v>
       </c>
       <c r="F22" t="n">
-        <v>33223.50746268657</v>
+        <v>54440.58553246881</v>
       </c>
       <c r="G22" t="n">
-        <v>8456.431391742144</v>
+        <v>29673.50946152438</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>26171.39481723508</v>
       </c>
       <c r="F23" t="n">
-        <v>33223.50746268657</v>
+        <v>55801.60017078053</v>
       </c>
       <c r="G23" t="n">
-        <v>7837.254489968537</v>
+        <v>30415.3471980625</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>34417.16417910447</v>
       </c>
       <c r="G25" t="n">
-        <v>20473.92089552239</v>
+        <v>21334.34999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>29543968925000</v>
+        <v>29414259237500</v>
       </c>
     </row>
     <row r="26">
@@ -3911,13 +3911,13 @@
         <v>8185.466417910445</v>
       </c>
       <c r="F26" t="n">
-        <v>34417.16417910447</v>
+        <v>36159.53311567163</v>
       </c>
       <c r="G26" t="n">
-        <v>25282.18365671642</v>
+        <v>27024.55259328357</v>
       </c>
       <c r="H26" t="n">
-        <v>25732679738750</v>
+        <v>25340307934062.5</v>
       </c>
     </row>
     <row r="27">
@@ -3939,13 +3939,13 @@
         <v>8390.103078358206</v>
       </c>
       <c r="F27" t="n">
-        <v>34417.16417910447</v>
+        <v>37063.52144356342</v>
       </c>
       <c r="G27" t="n">
-        <v>25053.80914365672</v>
+        <v>27700.16640811566</v>
       </c>
       <c r="H27" t="n">
-        <v>21955818010343.75</v>
+        <v>21164507848039.06</v>
       </c>
     </row>
     <row r="28">
@@ -3967,13 +3967,13 @@
         <v>8599.85565531716</v>
       </c>
       <c r="F28" t="n">
-        <v>34417.16417910447</v>
+        <v>37990.1094796525</v>
       </c>
       <c r="G28" t="n">
-        <v>24819.72526777053</v>
+        <v>28392.67056831855</v>
       </c>
       <c r="H28" t="n">
-        <v>18214244426227.34</v>
+        <v>16884312759865.04</v>
       </c>
     </row>
     <row r="29">
@@ -3995,13 +3995,13 @@
         <v>8814.852046700087</v>
       </c>
       <c r="F29" t="n">
-        <v>34417.16417910447</v>
+        <v>38939.86221664381</v>
       </c>
       <c r="G29" t="n">
-        <v>24579.78929498718</v>
+        <v>29102.48733252651</v>
       </c>
       <c r="H29" t="n">
-        <v>14508841190008.03</v>
+        <v>12497112794486.67</v>
       </c>
     </row>
     <row r="30">
@@ -4023,13 +4023,13 @@
         <v>9035.223347867588</v>
       </c>
       <c r="F30" t="n">
-        <v>34417.16417910447</v>
+        <v>39913.3587720599</v>
       </c>
       <c r="G30" t="n">
-        <v>24333.85492288425</v>
+        <v>29830.04951583967</v>
       </c>
       <c r="H30" t="n">
-        <v>10840512560383.23</v>
+        <v>8000232829973.84</v>
       </c>
     </row>
     <row r="31">
@@ -4051,13 +4051,13 @@
         <v>9261.103931564277</v>
       </c>
       <c r="F31" t="n">
-        <v>34417.16417910447</v>
+        <v>40911.1927413614</v>
       </c>
       <c r="G31" t="n">
-        <v>24081.77219147874</v>
+        <v>30575.80075373566</v>
       </c>
       <c r="H31" t="n">
-        <v>7210185402517.807</v>
+        <v>3390930866348.189</v>
       </c>
     </row>
     <row r="32">
@@ -4079,13 +4079,13 @@
         <v>9492.631529853385</v>
       </c>
       <c r="F32" t="n">
-        <v>34417.16417910447</v>
+        <v>41933.97255989543</v>
       </c>
       <c r="G32" t="n">
-        <v>23823.3873917881</v>
+        <v>31340.19577257905</v>
       </c>
       <c r="H32" t="n">
-        <v>3618809753205.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4107,13 +4107,13 @@
         <v>9729.947318099719</v>
       </c>
       <c r="F33" t="n">
-        <v>34417.16417910447</v>
+        <v>42982.3218738928</v>
       </c>
       <c r="G33" t="n">
-        <v>23558.54297210519</v>
+        <v>32123.70066689352</v>
       </c>
       <c r="H33" t="n">
-        <v>67359400160.89307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4135,10 +4135,10 @@
         <v>9973.196001052211</v>
       </c>
       <c r="F34" t="n">
-        <v>34417.16417910447</v>
+        <v>44056.87992074012</v>
       </c>
       <c r="G34" t="n">
-        <v>23287.07744193021</v>
+        <v>32926.79318356586</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -4163,10 +4163,10 @@
         <v>10222.52590107851</v>
       </c>
       <c r="F35" t="n">
-        <v>34417.16417910447</v>
+        <v>45158.30191875863</v>
       </c>
       <c r="G35" t="n">
-        <v>23008.82527350086</v>
+        <v>33749.963013155</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>10478.08904860548</v>
       </c>
       <c r="F36" t="n">
-        <v>34417.16417910447</v>
+        <v>46287.25946672759</v>
       </c>
       <c r="G36" t="n">
-        <v>22723.61680086076</v>
+        <v>34593.71208848387</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -4219,10 +4219,10 @@
         <v>10740.04127482061</v>
       </c>
       <c r="F37" t="n">
-        <v>34417.16417910447</v>
+        <v>47444.44095339577</v>
       </c>
       <c r="G37" t="n">
-        <v>22431.27811640468</v>
+        <v>35458.55489069597</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4247,10 +4247,10 @@
         <v>11008.54230669113</v>
       </c>
       <c r="F38" t="n">
-        <v>34417.16417910447</v>
+        <v>48630.55197723066</v>
       </c>
       <c r="G38" t="n">
-        <v>22131.63096483718</v>
+        <v>36345.01876296337</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -4275,10 +4275,10 @@
         <v>11283.7558643584</v>
       </c>
       <c r="F39" t="n">
-        <v>34417.16417910447</v>
+        <v>49846.31577666142</v>
       </c>
       <c r="G39" t="n">
-        <v>21824.4926344805</v>
+        <v>37253.64423203745</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -4303,10 +4303,10 @@
         <v>11565.84976096736</v>
       </c>
       <c r="F40" t="n">
-        <v>34417.16417910447</v>
+        <v>51092.47367107795</v>
       </c>
       <c r="G40" t="n">
-        <v>21509.6758458649</v>
+        <v>38184.98533783838</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>11854.99600499155</v>
       </c>
       <c r="F41" t="n">
-        <v>34417.16417910447</v>
+        <v>52369.78551285491</v>
       </c>
       <c r="G41" t="n">
-        <v>21186.98863753391</v>
+        <v>39139.60997128434</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -4359,10 +4359,10 @@
         <v>12151.37090511633</v>
       </c>
       <c r="F42" t="n">
-        <v>34417.16417910447</v>
+        <v>53679.03015067627</v>
       </c>
       <c r="G42" t="n">
-        <v>20856.23424899465</v>
+        <v>40118.10022056644</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4387,10 +4387,10 @@
         <v>12455.15517774424</v>
       </c>
       <c r="F43" t="n">
-        <v>34417.16417910447</v>
+        <v>55021.00590444317</v>
       </c>
       <c r="G43" t="n">
-        <v>20517.2110007419</v>
+        <v>41121.05272608059</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4415,10 +4415,10 @@
         <v>12766.53405718785</v>
       </c>
       <c r="F44" t="n">
-        <v>34417.16417910447</v>
+        <v>56396.53105205425</v>
       </c>
       <c r="G44" t="n">
-        <v>20169.71217128284</v>
+        <v>42149.0790442326</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4443,10 +4443,10 @@
         <v>13085.69740861754</v>
       </c>
       <c r="F45" t="n">
-        <v>34417.16417910447</v>
+        <v>57806.4443283556</v>
       </c>
       <c r="G45" t="n">
-        <v>19813.5258710873</v>
+        <v>43202.80602033842</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
